--- a/Datos de estudiantes.xlsx
+++ b/Datos de estudiantes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,22 +483,22 @@
         <v>106</v>
       </c>
       <c r="D2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E2" t="n">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="F2" t="n">
-        <v>38</v>
+        <v>56.5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Reprobado</t>
+          <t>Aprobado</t>
         </is>
       </c>
     </row>
@@ -508,24 +508,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antonia</t>
+          <t>Diego</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F3" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>99%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -540,29 +540,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carolina</t>
+          <t>Eduardo</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>64.5</v>
+        <v>18</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Reprobado</t>
         </is>
       </c>
     </row>
@@ -572,24 +572,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diego</t>
+          <t>Leonor</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="F5" t="n">
-        <v>50.5</v>
+        <v>61.5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>92%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -604,29 +604,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Eduardo</t>
+          <t>Luffy</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
+        <v>69</v>
+      </c>
+      <c r="E6" t="n">
+        <v>31</v>
+      </c>
+      <c r="F6" t="n">
         <v>50</v>
       </c>
-      <c r="E6" t="n">
-        <v>22</v>
-      </c>
-      <c r="F6" t="n">
-        <v>36</v>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>98%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Reprobado</t>
+          <t>Aprobado</t>
         </is>
       </c>
     </row>
@@ -636,29 +636,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Elsa</t>
+          <t>Luis</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D7" t="n">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" t="n">
-        <v>47.5</v>
+        <v>34.5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>76%</t>
+          <t>66%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Reprobado</t>
         </is>
       </c>
     </row>
@@ -668,29 +668,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Magnus</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="E8" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F8" t="n">
-        <v>15</v>
+        <v>48.5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Reprobado</t>
+          <t>Aprobado</t>
         </is>
       </c>
     </row>
@@ -700,24 +700,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Leonor</t>
+          <t>Marcela</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>31</v>
+        <v>19.5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>51%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -732,29 +732,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luffy</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="D10" t="n">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E10" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F10" t="n">
-        <v>30.5</v>
+        <v>54</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>77%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Reprobado</t>
+          <t>Aprobado</t>
         </is>
       </c>
     </row>
@@ -764,29 +764,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Macarena</t>
+          <t>Natalia</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F11" t="n">
-        <v>22.5</v>
+        <v>40</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>61%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Reprobado</t>
+          <t>Aprobado</t>
         </is>
       </c>
     </row>
@@ -796,29 +796,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Manuel</t>
+          <t>Pedro</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D12" t="n">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="E12" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F12" t="n">
-        <v>53.5</v>
+        <v>20.5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>84%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Reprobado</t>
         </is>
       </c>
     </row>
@@ -828,91 +828,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Marcela</t>
+          <t>Rodrigo</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E13" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="F13" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>99%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
-        <is>
-          <t>Reprobado</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Rodrigo</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>20</v>
-      </c>
-      <c r="D14" t="n">
-        <v>36</v>
-      </c>
-      <c r="E14" t="n">
-        <v>25</v>
-      </c>
-      <c r="F14" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>90%</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Reprobado</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Ximena</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>11</v>
-      </c>
-      <c r="D15" t="n">
-        <v>68</v>
-      </c>
-      <c r="E15" t="n">
-        <v>46</v>
-      </c>
-      <c r="F15" t="n">
-        <v>57</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>86%</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>

--- a/Datos de estudiantes.xlsx
+++ b/Datos de estudiantes.xlsx
@@ -483,22 +483,22 @@
         <v>106</v>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="F2" t="n">
-        <v>56.5</v>
+        <v>30</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Reprobado</t>
         </is>
       </c>
     </row>
@@ -515,17 +515,17 @@
         <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E3" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F3" t="n">
-        <v>46</v>
+        <v>42.5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>99%</t>
+          <t>69%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -547,17 +547,17 @@
         <v>63</v>
       </c>
       <c r="D4" t="n">
+        <v>18</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26</v>
+      </c>
+      <c r="F4" t="n">
         <v>22</v>
       </c>
-      <c r="E4" t="n">
-        <v>14</v>
-      </c>
-      <c r="F4" t="n">
-        <v>18</v>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -572,29 +572,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Leonor</t>
+          <t>Elsa</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" t="n">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>61.5</v>
+        <v>39</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Reprobado</t>
         </is>
       </c>
     </row>
@@ -604,20 +604,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luffy</t>
+          <t>Juan</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D6" t="n">
         <v>69</v>
       </c>
       <c r="E6" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>52.5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -636,29 +636,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luis</t>
+          <t>Leonor</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E7" t="n">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="F7" t="n">
-        <v>34.5</v>
+        <v>51</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>66%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Reprobado</t>
+          <t>Aprobado</t>
         </is>
       </c>
     </row>
@@ -668,29 +668,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Magnus</t>
+          <t>Luffy</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D8" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E8" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F8" t="n">
-        <v>48.5</v>
+        <v>33.5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Reprobado</t>
         </is>
       </c>
     </row>
@@ -700,29 +700,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Marcela</t>
+          <t>Manuel</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="F9" t="n">
-        <v>19.5</v>
+        <v>49</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Reprobado</t>
+          <t>Aprobado</t>
         </is>
       </c>
     </row>
@@ -732,29 +732,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Marcela</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="D10" t="n">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>77%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Reprobado</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
         <v>119</v>
       </c>
       <c r="D11" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F11" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -796,24 +796,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pedro</t>
+          <t>Rodrigo</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="F12" t="n">
-        <v>20.5</v>
+        <v>34.5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -828,24 +828,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rodrigo</t>
+          <t>Ximena</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="E13" t="n">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F13" t="n">
-        <v>48</v>
+        <v>53.5</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>99%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">

--- a/Datos de estudiantes.xlsx
+++ b/Datos de estudiantes.xlsx
@@ -476,24 +476,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anastasia</t>
+          <t>Antonia</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>21.5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>97%</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -508,29 +508,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diego</t>
+          <t>Carolina</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="D3" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>42.5</v>
+        <v>10</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>69%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Reprobado</t>
         </is>
       </c>
     </row>
@@ -540,24 +540,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eduardo</t>
+          <t>Diego</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E4" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -572,24 +572,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Elsa</t>
+          <t>Eduardo</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F5" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -604,24 +604,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Juan</t>
+          <t>Luffy</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F6" t="n">
-        <v>52.5</v>
+        <v>48.5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>98%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -636,24 +636,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Leonor</t>
+          <t>Magnus</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="D7" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E7" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F7" t="n">
-        <v>51</v>
+        <v>55.5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -668,24 +668,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luffy</t>
+          <t>Manuel</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F8" t="n">
-        <v>33.5</v>
+        <v>38</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -700,29 +700,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Manuel</t>
+          <t>Marcela</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D9" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="F9" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>72%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Reprobado</t>
         </is>
       </c>
     </row>
@@ -732,29 +732,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Marcela</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="F10" t="n">
-        <v>18</v>
+        <v>57.5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>90%</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Reprobado</t>
+          <t>Aprobado</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
         <v>119</v>
       </c>
       <c r="D11" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F11" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>90%</t>
+          <t>93%</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -796,29 +796,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rodrigo</t>
+          <t>Pedro</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E12" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F12" t="n">
-        <v>34.5</v>
+        <v>41</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>88%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Reprobado</t>
+          <t>Aprobado</t>
         </is>
       </c>
     </row>
@@ -835,22 +835,22 @@
         <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E13" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
-        <v>53.5</v>
+        <v>23</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>76%</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Reprobado</t>
         </is>
       </c>
     </row>
